--- a/docs/webtoon_originals_en.xlsx
+++ b/docs/webtoon_originals_en.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokat\Documents\KZRprojects\webtoon-originals-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44617F8B-F575-43D3-ACAB-326B06BC63F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF681F2-24BF-44DE-9493-4D12A0F04A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="webtoon_originals_en" sheetId="1" r:id="rId1"/>
@@ -7079,7 +7079,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7559,9 +7559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7916,14 +7914,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7962,7 +7963,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8003,7 +8004,7 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8085,7 +8086,7 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8167,7 +8168,7 @@
       <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8208,7 +8209,7 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8249,7 +8250,7 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8290,7 +8291,7 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8372,7 +8373,7 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8454,7 +8455,7 @@
       <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8536,7 +8537,7 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8577,7 +8578,7 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8618,7 +8619,7 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8700,7 +8701,7 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8782,7 +8783,7 @@
       <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8823,7 +8824,7 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8864,7 +8865,7 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8905,7 +8906,7 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8987,7 +8988,7 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9028,7 +9029,7 @@
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9069,7 +9070,7 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9110,7 +9111,7 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9151,7 +9152,7 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9192,7 +9193,7 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9233,7 +9234,7 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9315,7 +9316,7 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9356,7 +9357,7 @@
       <c r="L35" t="b">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9397,7 +9398,7 @@
       <c r="L36" t="b">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9479,7 +9480,7 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9520,7 +9521,7 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9561,7 +9562,7 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -9602,7 +9603,7 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9643,7 +9644,7 @@
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9684,7 +9685,7 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9725,7 +9726,7 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -9766,7 +9767,7 @@
       <c r="L45" t="b">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9848,7 +9849,7 @@
       <c r="L47" t="b">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9889,7 +9890,7 @@
       <c r="L48" t="b">
         <v>1</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -9930,7 +9931,7 @@
       <c r="L49" t="b">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9971,7 +9972,7 @@
       <c r="L50" t="b">
         <v>1</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -10053,7 +10054,7 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10094,7 +10095,7 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10135,7 +10136,7 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10217,7 +10218,7 @@
       <c r="L56" t="b">
         <v>1</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10258,7 +10259,7 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10299,7 +10300,7 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10381,7 +10382,7 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -10422,7 +10423,7 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10463,7 +10464,7 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10504,7 +10505,7 @@
       <c r="L63" t="b">
         <v>1</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -10586,7 +10587,7 @@
       <c r="L65" t="b">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10627,7 +10628,7 @@
       <c r="L66" t="b">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10709,7 +10710,7 @@
       <c r="L68" t="b">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10750,7 +10751,7 @@
       <c r="L69" t="b">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10791,7 +10792,7 @@
       <c r="L70" t="b">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10914,7 +10915,7 @@
       <c r="L73" t="b">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -10996,7 +10997,7 @@
       <c r="L75" t="b">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -11078,7 +11079,7 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -11119,7 +11120,7 @@
       <c r="L78" t="b">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -11201,7 +11202,7 @@
       <c r="L80" t="b">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -11242,7 +11243,7 @@
       <c r="L81" t="b">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -11283,7 +11284,7 @@
       <c r="L82" t="b">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -11324,7 +11325,7 @@
       <c r="L83" t="b">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       <c r="L85" t="b">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -11447,7 +11448,7 @@
       <c r="L86" t="b">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -11488,7 +11489,7 @@
       <c r="L87" t="b">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -11529,7 +11530,7 @@
       <c r="L88" t="b">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -11570,7 +11571,7 @@
       <c r="L89" t="b">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -11611,7 +11612,7 @@
       <c r="L90" t="b">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -11652,7 +11653,7 @@
       <c r="L91" t="b">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -11693,7 +11694,7 @@
       <c r="L92" t="b">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -11734,7 +11735,7 @@
       <c r="L93" t="b">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -11775,7 +11776,7 @@
       <c r="L94" t="b">
         <v>0</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -11816,7 +11817,7 @@
       <c r="L95" t="b">
         <v>0</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="1" t="s">
         <v>316</v>
       </c>
     </row>
@@ -11939,7 +11940,7 @@
       <c r="L98" t="b">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -11980,7 +11981,7 @@
       <c r="L99" t="b">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -12021,7 +12022,7 @@
       <c r="L100" t="b">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -12185,7 +12186,7 @@
       <c r="L104" t="b">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -12226,7 +12227,7 @@
       <c r="L105" t="b">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="1" t="s">
         <v>346</v>
       </c>
     </row>
@@ -12308,7 +12309,7 @@
       <c r="L107" t="b">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="1" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12349,7 +12350,7 @@
       <c r="L108" t="b">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -12390,7 +12391,7 @@
       <c r="L109" t="b">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="1" t="s">
         <v>358</v>
       </c>
     </row>
@@ -12472,7 +12473,7 @@
       <c r="L111" t="b">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="1" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12554,7 +12555,7 @@
       <c r="L113" t="b">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="1" t="s">
         <v>370</v>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       <c r="L115" t="b">
         <v>1</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -12677,7 +12678,7 @@
       <c r="L116" t="b">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -12759,7 +12760,7 @@
       <c r="L118" t="b">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12800,7 +12801,7 @@
       <c r="L119" t="b">
         <v>1</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12923,7 +12924,7 @@
       <c r="L122" t="b">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -13046,7 +13047,7 @@
       <c r="L125" t="b">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13128,7 +13129,7 @@
       <c r="L127" t="b">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="1" t="s">
         <v>411</v>
       </c>
     </row>
@@ -13169,7 +13170,7 @@
       <c r="L128" t="b">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13210,7 +13211,7 @@
       <c r="L129" t="b">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="1" t="s">
         <v>417</v>
       </c>
     </row>
@@ -13251,7 +13252,7 @@
       <c r="L130" t="b">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" s="1" t="s">
         <v>420</v>
       </c>
     </row>
@@ -13292,7 +13293,7 @@
       <c r="L131" t="b">
         <v>1</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -13374,7 +13375,7 @@
       <c r="L133" t="b">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13415,7 +13416,7 @@
       <c r="L134" t="b">
         <v>1</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" s="1" t="s">
         <v>433</v>
       </c>
     </row>
@@ -13456,7 +13457,7 @@
       <c r="L135" t="b">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" s="1" t="s">
         <v>436</v>
       </c>
     </row>
@@ -13497,7 +13498,7 @@
       <c r="L136" t="b">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13538,7 +13539,7 @@
       <c r="L137" t="b">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -13579,7 +13580,7 @@
       <c r="L138" t="b">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13620,7 +13621,7 @@
       <c r="L139" t="b">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" s="1" t="s">
         <v>449</v>
       </c>
     </row>
@@ -13661,7 +13662,7 @@
       <c r="L140" t="b">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -13702,7 +13703,7 @@
       <c r="L141" t="b">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -13784,7 +13785,7 @@
       <c r="L143" t="b">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13825,7 +13826,7 @@
       <c r="L144" t="b">
         <v>0</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       <c r="L145" t="b">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -13948,7 +13949,7 @@
       <c r="L147" t="b">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="1" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13989,7 +13990,7 @@
       <c r="L148" t="b">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -14112,7 +14113,7 @@
       <c r="L151" t="b">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151" s="1" t="s">
         <v>485</v>
       </c>
     </row>
@@ -14153,7 +14154,7 @@
       <c r="L152" t="b">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14194,7 +14195,7 @@
       <c r="L153" t="b">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14235,7 +14236,7 @@
       <c r="L154" t="b">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14276,7 +14277,7 @@
       <c r="L155" t="b">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14399,7 +14400,7 @@
       <c r="L158" t="b">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="1" t="s">
         <v>507</v>
       </c>
     </row>
@@ -14440,7 +14441,7 @@
       <c r="L159" t="b">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -14481,7 +14482,7 @@
       <c r="L160" t="b">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="1" t="s">
         <v>513</v>
       </c>
     </row>
@@ -14522,7 +14523,7 @@
       <c r="L161" t="b">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="1" t="s">
         <v>516</v>
       </c>
     </row>
@@ -14563,7 +14564,7 @@
       <c r="L162" t="b">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="1" t="s">
         <v>519</v>
       </c>
     </row>
@@ -14604,7 +14605,7 @@
       <c r="L163" t="b">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14645,7 +14646,7 @@
       <c r="L164" t="b">
         <v>1</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="1" t="s">
         <v>525</v>
       </c>
     </row>
@@ -14686,7 +14687,7 @@
       <c r="L165" t="b">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -14727,7 +14728,7 @@
       <c r="L166" t="b">
         <v>0</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" s="1" t="s">
         <v>531</v>
       </c>
     </row>
@@ -14768,7 +14769,7 @@
       <c r="L167" t="b">
         <v>0</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" s="1" t="s">
         <v>534</v>
       </c>
     </row>
@@ -14891,7 +14892,7 @@
       <c r="L170" t="b">
         <v>0</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" s="1" t="s">
         <v>543</v>
       </c>
     </row>
@@ -14932,7 +14933,7 @@
       <c r="L171" t="b">
         <v>0</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171" s="1" t="s">
         <v>546</v>
       </c>
     </row>
@@ -14973,7 +14974,7 @@
       <c r="L172" t="b">
         <v>1</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -15014,7 +15015,7 @@
       <c r="L173" t="b">
         <v>1</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15055,7 +15056,7 @@
       <c r="L174" t="b">
         <v>0</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" s="1" t="s">
         <v>555</v>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       <c r="L175" t="b">
         <v>1</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -15137,7 +15138,7 @@
       <c r="L176" t="b">
         <v>1</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" s="1" t="s">
         <v>561</v>
       </c>
     </row>
@@ -15219,7 +15220,7 @@
       <c r="L178" t="b">
         <v>0</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -15301,7 +15302,7 @@
       <c r="L180" t="b">
         <v>0</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -15342,7 +15343,7 @@
       <c r="L181" t="b">
         <v>0</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -15383,7 +15384,7 @@
       <c r="L182" t="b">
         <v>0</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" s="1" t="s">
         <v>579</v>
       </c>
     </row>
@@ -15424,7 +15425,7 @@
       <c r="L183" t="b">
         <v>0</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -15465,7 +15466,7 @@
       <c r="L184" t="b">
         <v>0</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="1" t="s">
         <v>585</v>
       </c>
     </row>
@@ -15506,7 +15507,7 @@
       <c r="L185" t="b">
         <v>0</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" s="1" t="s">
         <v>587</v>
       </c>
     </row>
@@ -15547,7 +15548,7 @@
       <c r="L186" t="b">
         <v>0</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" s="1" t="s">
         <v>590</v>
       </c>
     </row>
@@ -15588,7 +15589,7 @@
       <c r="L187" t="b">
         <v>0</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187" s="1" t="s">
         <v>593</v>
       </c>
     </row>
@@ -15711,7 +15712,7 @@
       <c r="L190" t="b">
         <v>0</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="1" t="s">
         <v>602</v>
       </c>
     </row>
@@ -15752,7 +15753,7 @@
       <c r="L191" t="b">
         <v>0</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="1" t="s">
         <v>605</v>
       </c>
     </row>
@@ -15793,7 +15794,7 @@
       <c r="L192" t="b">
         <v>0</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="1" t="s">
         <v>608</v>
       </c>
     </row>
@@ -15834,7 +15835,7 @@
       <c r="L193" t="b">
         <v>0</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -15998,7 +15999,7 @@
       <c r="L197" t="b">
         <v>0</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -16080,7 +16081,7 @@
       <c r="L199" t="b">
         <v>0</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" s="1" t="s">
         <v>629</v>
       </c>
     </row>
@@ -16162,7 +16163,7 @@
       <c r="L201" t="b">
         <v>0</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201" s="1" t="s">
         <v>635</v>
       </c>
     </row>
@@ -16285,7 +16286,7 @@
       <c r="L204" t="b">
         <v>1</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -16367,7 +16368,7 @@
       <c r="L206" t="b">
         <v>1</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206" s="1" t="s">
         <v>649</v>
       </c>
     </row>
@@ -16408,7 +16409,7 @@
       <c r="L207" t="b">
         <v>0</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207" s="1" t="s">
         <v>652</v>
       </c>
     </row>
@@ -16449,7 +16450,7 @@
       <c r="L208" t="b">
         <v>0</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -16490,7 +16491,7 @@
       <c r="L209" t="b">
         <v>0</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209" s="1" t="s">
         <v>658</v>
       </c>
     </row>
@@ -16531,7 +16532,7 @@
       <c r="L210" t="b">
         <v>0</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210" s="1" t="s">
         <v>661</v>
       </c>
     </row>
@@ -16572,7 +16573,7 @@
       <c r="L211" t="b">
         <v>0</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -16613,7 +16614,7 @@
       <c r="L212" t="b">
         <v>1</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212" s="1" t="s">
         <v>667</v>
       </c>
     </row>
@@ -16654,7 +16655,7 @@
       <c r="L213" t="b">
         <v>1</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213" s="1" t="s">
         <v>670</v>
       </c>
     </row>
@@ -16695,7 +16696,7 @@
       <c r="L214" t="b">
         <v>0</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214" s="1" t="s">
         <v>673</v>
       </c>
     </row>
@@ -16736,7 +16737,7 @@
       <c r="L215" t="b">
         <v>0</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215" s="1" t="s">
         <v>676</v>
       </c>
     </row>
@@ -16777,7 +16778,7 @@
       <c r="L216" t="b">
         <v>0</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216" s="1" t="s">
         <v>679</v>
       </c>
     </row>
@@ -16818,7 +16819,7 @@
       <c r="L217" t="b">
         <v>0</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217" s="1" t="s">
         <v>682</v>
       </c>
     </row>
@@ -16859,7 +16860,7 @@
       <c r="L218" t="b">
         <v>0</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" s="1" t="s">
         <v>685</v>
       </c>
     </row>
@@ -16900,7 +16901,7 @@
       <c r="L219" t="b">
         <v>0</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219" s="1" t="s">
         <v>688</v>
       </c>
     </row>
@@ -16941,7 +16942,7 @@
       <c r="L220" t="b">
         <v>0</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -16982,7 +16983,7 @@
       <c r="L221" t="b">
         <v>0</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17023,7 +17024,7 @@
       <c r="L222" t="b">
         <v>1</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -17064,7 +17065,7 @@
       <c r="L223" t="b">
         <v>0</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -17105,7 +17106,7 @@
       <c r="L224" t="b">
         <v>0</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224" s="1" t="s">
         <v>703</v>
       </c>
     </row>
@@ -17146,7 +17147,7 @@
       <c r="L225" t="b">
         <v>0</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225" s="1" t="s">
         <v>706</v>
       </c>
     </row>
@@ -17187,7 +17188,7 @@
       <c r="L226" t="b">
         <v>0</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -17228,7 +17229,7 @@
       <c r="L227" t="b">
         <v>0</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227" s="1" t="s">
         <v>712</v>
       </c>
     </row>
@@ -17269,7 +17270,7 @@
       <c r="L228" t="b">
         <v>0</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -17310,7 +17311,7 @@
       <c r="L229" t="b">
         <v>0</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -17351,7 +17352,7 @@
       <c r="L230" t="b">
         <v>0</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230" s="1" t="s">
         <v>722</v>
       </c>
     </row>
@@ -17433,7 +17434,7 @@
       <c r="L232" t="b">
         <v>0</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232" s="1" t="s">
         <v>728</v>
       </c>
     </row>
@@ -17515,7 +17516,7 @@
       <c r="L234" t="b">
         <v>0</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234" s="1" t="s">
         <v>734</v>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       <c r="L235" t="b">
         <v>0</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -17597,7 +17598,7 @@
       <c r="L236" t="b">
         <v>0</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236" s="1" t="s">
         <v>740</v>
       </c>
     </row>
@@ -17638,7 +17639,7 @@
       <c r="L237" t="b">
         <v>0</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237" s="1" t="s">
         <v>743</v>
       </c>
     </row>
@@ -17679,7 +17680,7 @@
       <c r="L238" t="b">
         <v>0</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238" s="1" t="s">
         <v>746</v>
       </c>
     </row>
@@ -17720,7 +17721,7 @@
       <c r="L239" t="b">
         <v>0</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239" s="1" t="s">
         <v>749</v>
       </c>
     </row>
@@ -17843,7 +17844,7 @@
       <c r="L242" t="b">
         <v>0</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242" s="1" t="s">
         <v>758</v>
       </c>
     </row>
@@ -17884,7 +17885,7 @@
       <c r="L243" t="b">
         <v>0</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -17966,7 +17967,7 @@
       <c r="L245" t="b">
         <v>1</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -18048,7 +18049,7 @@
       <c r="L247" t="b">
         <v>0</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247" s="1" t="s">
         <v>773</v>
       </c>
     </row>
@@ -18089,7 +18090,7 @@
       <c r="L248" t="b">
         <v>0</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248" s="1" t="s">
         <v>776</v>
       </c>
     </row>
@@ -18130,7 +18131,7 @@
       <c r="L249" t="b">
         <v>1</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249" s="1" t="s">
         <v>779</v>
       </c>
     </row>
@@ -18171,7 +18172,7 @@
       <c r="L250" t="b">
         <v>0</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250" s="1" t="s">
         <v>782</v>
       </c>
     </row>
@@ -18335,7 +18336,7 @@
       <c r="L254" t="b">
         <v>0</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254" s="1" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18417,7 +18418,7 @@
       <c r="L256" t="b">
         <v>0</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256" s="1" t="s">
         <v>800</v>
       </c>
     </row>
@@ -18458,7 +18459,7 @@
       <c r="L257" t="b">
         <v>0</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257" s="1" t="s">
         <v>803</v>
       </c>
     </row>
@@ -18540,7 +18541,7 @@
       <c r="L259" t="b">
         <v>0</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259" s="1" t="s">
         <v>809</v>
       </c>
     </row>
@@ -18581,7 +18582,7 @@
       <c r="L260" t="b">
         <v>0</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -18663,7 +18664,7 @@
       <c r="L262" t="b">
         <v>0</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262" s="1" t="s">
         <v>818</v>
       </c>
     </row>
@@ -18704,7 +18705,7 @@
       <c r="L263" t="b">
         <v>0</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263" s="1" t="s">
         <v>821</v>
       </c>
     </row>
@@ -18745,7 +18746,7 @@
       <c r="L264" t="b">
         <v>1</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264" s="1" t="s">
         <v>824</v>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       <c r="L265" t="b">
         <v>0</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265" s="1" t="s">
         <v>827</v>
       </c>
     </row>
@@ -18827,7 +18828,7 @@
       <c r="L266" t="b">
         <v>0</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="1" t="s">
         <v>830</v>
       </c>
     </row>
@@ -18868,7 +18869,7 @@
       <c r="L267" t="b">
         <v>0</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267" s="1" t="s">
         <v>833</v>
       </c>
     </row>
@@ -18909,7 +18910,7 @@
       <c r="L268" t="b">
         <v>0</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268" s="1" t="s">
         <v>836</v>
       </c>
     </row>
@@ -18950,7 +18951,7 @@
       <c r="L269" t="b">
         <v>0</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269" s="1" t="s">
         <v>839</v>
       </c>
     </row>
@@ -18991,7 +18992,7 @@
       <c r="L270" t="b">
         <v>0</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270" s="1" t="s">
         <v>842</v>
       </c>
     </row>
@@ -19032,7 +19033,7 @@
       <c r="L271" t="b">
         <v>0</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271" s="1" t="s">
         <v>845</v>
       </c>
     </row>
@@ -19073,7 +19074,7 @@
       <c r="L272" t="b">
         <v>0</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272" s="1" t="s">
         <v>848</v>
       </c>
     </row>
@@ -19114,7 +19115,7 @@
       <c r="L273" t="b">
         <v>0</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273" s="1" t="s">
         <v>851</v>
       </c>
     </row>
@@ -19196,7 +19197,7 @@
       <c r="L275" t="b">
         <v>0</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275" s="1" t="s">
         <v>857</v>
       </c>
     </row>
@@ -19319,7 +19320,7 @@
       <c r="L278" t="b">
         <v>0</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278" s="1" t="s">
         <v>866</v>
       </c>
     </row>
@@ -19360,7 +19361,7 @@
       <c r="L279" t="b">
         <v>0</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279" s="1" t="s">
         <v>869</v>
       </c>
     </row>
@@ -19401,7 +19402,7 @@
       <c r="L280" t="b">
         <v>0</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280" s="1" t="s">
         <v>872</v>
       </c>
     </row>
@@ -19442,7 +19443,7 @@
       <c r="L281" t="b">
         <v>0</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281" s="1" t="s">
         <v>875</v>
       </c>
     </row>
@@ -19483,7 +19484,7 @@
       <c r="L282" t="b">
         <v>0</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282" s="1" t="s">
         <v>878</v>
       </c>
     </row>
@@ -19524,7 +19525,7 @@
       <c r="L283" t="b">
         <v>0</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283" s="1" t="s">
         <v>881</v>
       </c>
     </row>
@@ -19565,7 +19566,7 @@
       <c r="L284" t="b">
         <v>0</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284" s="1" t="s">
         <v>884</v>
       </c>
     </row>
@@ -19606,7 +19607,7 @@
       <c r="L285" t="b">
         <v>0</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285" s="1" t="s">
         <v>887</v>
       </c>
     </row>
@@ -19647,7 +19648,7 @@
       <c r="L286" t="b">
         <v>0</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286" s="1" t="s">
         <v>890</v>
       </c>
     </row>
@@ -19688,7 +19689,7 @@
       <c r="L287" t="b">
         <v>0</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287" s="1" t="s">
         <v>893</v>
       </c>
     </row>
@@ -19770,7 +19771,7 @@
       <c r="L289" t="b">
         <v>0</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289" s="1" t="s">
         <v>900</v>
       </c>
     </row>
@@ -19811,7 +19812,7 @@
       <c r="L290" t="b">
         <v>0</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290" s="1" t="s">
         <v>903</v>
       </c>
     </row>
@@ -19893,7 +19894,7 @@
       <c r="L292" t="b">
         <v>0</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292" s="1" t="s">
         <v>909</v>
       </c>
     </row>
@@ -19934,7 +19935,7 @@
       <c r="L293" t="b">
         <v>0</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293" s="1" t="s">
         <v>912</v>
       </c>
     </row>
@@ -19975,7 +19976,7 @@
       <c r="L294" t="b">
         <v>0</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294" s="1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       <c r="L295" t="b">
         <v>0</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295" s="1" t="s">
         <v>918</v>
       </c>
     </row>
@@ -20057,7 +20058,7 @@
       <c r="L296" t="b">
         <v>0</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296" s="1" t="s">
         <v>921</v>
       </c>
     </row>
@@ -20098,7 +20099,7 @@
       <c r="L297" t="b">
         <v>0</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297" s="1" t="s">
         <v>923</v>
       </c>
     </row>
@@ -20139,7 +20140,7 @@
       <c r="L298" t="b">
         <v>0</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298" s="1" t="s">
         <v>927</v>
       </c>
     </row>
@@ -20180,7 +20181,7 @@
       <c r="L299" t="b">
         <v>0</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299" s="1" t="s">
         <v>930</v>
       </c>
     </row>
@@ -20221,7 +20222,7 @@
       <c r="L300" t="b">
         <v>1</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300" s="1" t="s">
         <v>933</v>
       </c>
     </row>
@@ -20262,7 +20263,7 @@
       <c r="L301" t="b">
         <v>0</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301" s="1" t="s">
         <v>936</v>
       </c>
     </row>
@@ -20303,7 +20304,7 @@
       <c r="L302" t="b">
         <v>0</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302" s="1" t="s">
         <v>939</v>
       </c>
     </row>
@@ -20344,7 +20345,7 @@
       <c r="L303" t="b">
         <v>0</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303" s="1" t="s">
         <v>942</v>
       </c>
     </row>
@@ -20385,7 +20386,7 @@
       <c r="L304" t="b">
         <v>0</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304" s="1" t="s">
         <v>945</v>
       </c>
     </row>
@@ -20426,7 +20427,7 @@
       <c r="L305" t="b">
         <v>0</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305" s="1" t="s">
         <v>948</v>
       </c>
     </row>
@@ -20467,7 +20468,7 @@
       <c r="L306" t="b">
         <v>0</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306" s="1" t="s">
         <v>951</v>
       </c>
     </row>
@@ -20508,7 +20509,7 @@
       <c r="L307" t="b">
         <v>0</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307" s="1" t="s">
         <v>954</v>
       </c>
     </row>
@@ -20590,7 +20591,7 @@
       <c r="L309" t="b">
         <v>0</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309" s="1" t="s">
         <v>960</v>
       </c>
     </row>
@@ -20631,7 +20632,7 @@
       <c r="L310" t="b">
         <v>0</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310" s="1" t="s">
         <v>963</v>
       </c>
     </row>
@@ -20713,7 +20714,7 @@
       <c r="L312" t="b">
         <v>0</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312" s="1" t="s">
         <v>970</v>
       </c>
     </row>
@@ -20754,7 +20755,7 @@
       <c r="L313" t="b">
         <v>0</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313" s="1" t="s">
         <v>973</v>
       </c>
     </row>
@@ -20795,7 +20796,7 @@
       <c r="L314" t="b">
         <v>0</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314" s="1" t="s">
         <v>976</v>
       </c>
     </row>
@@ -20836,7 +20837,7 @@
       <c r="L315" t="b">
         <v>0</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315" s="1" t="s">
         <v>979</v>
       </c>
     </row>
@@ -20877,7 +20878,7 @@
       <c r="L316" t="b">
         <v>0</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316" s="1" t="s">
         <v>982</v>
       </c>
     </row>
@@ -20918,7 +20919,7 @@
       <c r="L317" t="b">
         <v>0</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317" s="1" t="s">
         <v>985</v>
       </c>
     </row>
@@ -20959,7 +20960,7 @@
       <c r="L318" t="b">
         <v>0</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318" s="1" t="s">
         <v>988</v>
       </c>
     </row>
@@ -21041,7 +21042,7 @@
       <c r="L320" t="b">
         <v>1</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320" s="1" t="s">
         <v>994</v>
       </c>
     </row>
@@ -21123,7 +21124,7 @@
       <c r="L322" t="b">
         <v>0</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -21164,7 +21165,7 @@
       <c r="L323" t="b">
         <v>0</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -21205,7 +21206,7 @@
       <c r="L324" t="b">
         <v>0</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       <c r="L325" t="b">
         <v>0</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -21287,7 +21288,7 @@
       <c r="L326" t="b">
         <v>0</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -21328,7 +21329,7 @@
       <c r="L327" t="b">
         <v>0</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -21369,7 +21370,7 @@
       <c r="L328" t="b">
         <v>0</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -21410,7 +21411,7 @@
       <c r="L329" t="b">
         <v>0</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -21451,7 +21452,7 @@
       <c r="L330" t="b">
         <v>1</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -21492,7 +21493,7 @@
       <c r="L331" t="b">
         <v>1</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -21533,7 +21534,7 @@
       <c r="L332" t="b">
         <v>1</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -21615,7 +21616,7 @@
       <c r="L334" t="b">
         <v>1</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M334" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -21656,7 +21657,7 @@
       <c r="L335" t="b">
         <v>0</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M335" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -21738,7 +21739,7 @@
       <c r="L337" t="b">
         <v>0</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M337" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -21779,7 +21780,7 @@
       <c r="L338" t="b">
         <v>0</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M338" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -21820,7 +21821,7 @@
       <c r="L339" t="b">
         <v>0</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M339" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -21861,7 +21862,7 @@
       <c r="L340" t="b">
         <v>0</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M340" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -21943,7 +21944,7 @@
       <c r="L342" t="b">
         <v>0</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M342" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -22148,7 +22149,7 @@
       <c r="L347" t="b">
         <v>1</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M347" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -22189,7 +22190,7 @@
       <c r="L348" t="b">
         <v>1</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M348" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -22271,7 +22272,7 @@
       <c r="L350" t="b">
         <v>1</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -22312,7 +22313,7 @@
       <c r="L351" t="b">
         <v>0</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -22353,7 +22354,7 @@
       <c r="L352" t="b">
         <v>0</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -22394,7 +22395,7 @@
       <c r="L353" t="b">
         <v>0</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -22476,7 +22477,7 @@
       <c r="L355" t="b">
         <v>0</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355" s="1" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -22599,7 +22600,7 @@
       <c r="L358" t="b">
         <v>0</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M358" s="1" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -22640,7 +22641,7 @@
       <c r="L359" t="b">
         <v>0</v>
       </c>
-      <c r="M359" t="s">
+      <c r="M359" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -22681,7 +22682,7 @@
       <c r="L360" t="b">
         <v>0</v>
       </c>
-      <c r="M360" t="s">
+      <c r="M360" s="1" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -22722,7 +22723,7 @@
       <c r="L361" t="b">
         <v>1</v>
       </c>
-      <c r="M361" t="s">
+      <c r="M361" s="1" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -22763,7 +22764,7 @@
       <c r="L362" t="b">
         <v>0</v>
       </c>
-      <c r="M362" t="s">
+      <c r="M362" s="1" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -22845,7 +22846,7 @@
       <c r="L364" t="b">
         <v>0</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -22886,7 +22887,7 @@
       <c r="L365" t="b">
         <v>1</v>
       </c>
-      <c r="M365" t="s">
+      <c r="M365" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -22927,7 +22928,7 @@
       <c r="L366" t="b">
         <v>1</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -22968,7 +22969,7 @@
       <c r="L367" t="b">
         <v>0</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -23009,7 +23010,7 @@
       <c r="L368" t="b">
         <v>0</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -23050,7 +23051,7 @@
       <c r="L369" t="b">
         <v>0</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369" s="1" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -23091,7 +23092,7 @@
       <c r="L370" t="b">
         <v>1</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -23132,7 +23133,7 @@
       <c r="L371" t="b">
         <v>0</v>
       </c>
-      <c r="M371" t="s">
+      <c r="M371" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -23173,7 +23174,7 @@
       <c r="L372" t="b">
         <v>1</v>
       </c>
-      <c r="M372" t="s">
+      <c r="M372" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -23214,7 +23215,7 @@
       <c r="L373" t="b">
         <v>0</v>
       </c>
-      <c r="M373" t="s">
+      <c r="M373" s="1" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -23255,7 +23256,7 @@
       <c r="L374" t="b">
         <v>0</v>
       </c>
-      <c r="M374" t="s">
+      <c r="M374" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -23296,7 +23297,7 @@
       <c r="L375" t="b">
         <v>0</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M375" s="1" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -23337,7 +23338,7 @@
       <c r="L376" t="b">
         <v>0</v>
       </c>
-      <c r="M376" t="s">
+      <c r="M376" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23419,7 +23420,7 @@
       <c r="L378" t="b">
         <v>1</v>
       </c>
-      <c r="M378" t="s">
+      <c r="M378" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -23460,7 +23461,7 @@
       <c r="L379" t="b">
         <v>1</v>
       </c>
-      <c r="M379" t="s">
+      <c r="M379" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -23501,7 +23502,7 @@
       <c r="L380" t="b">
         <v>0</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M380" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -23542,7 +23543,7 @@
       <c r="L381" t="b">
         <v>0</v>
       </c>
-      <c r="M381" t="s">
+      <c r="M381" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -23583,7 +23584,7 @@
       <c r="L382" t="b">
         <v>0</v>
       </c>
-      <c r="M382" t="s">
+      <c r="M382" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -23624,7 +23625,7 @@
       <c r="L383" t="b">
         <v>0</v>
       </c>
-      <c r="M383" t="s">
+      <c r="M383" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -23665,7 +23666,7 @@
       <c r="L384" t="b">
         <v>0</v>
       </c>
-      <c r="M384" t="s">
+      <c r="M384" s="1" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -23706,7 +23707,7 @@
       <c r="L385" t="b">
         <v>0</v>
       </c>
-      <c r="M385" t="s">
+      <c r="M385" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -23747,7 +23748,7 @@
       <c r="L386" t="b">
         <v>0</v>
       </c>
-      <c r="M386" t="s">
+      <c r="M386" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -23788,7 +23789,7 @@
       <c r="L387" t="b">
         <v>0</v>
       </c>
-      <c r="M387" t="s">
+      <c r="M387" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -23829,7 +23830,7 @@
       <c r="L388" t="b">
         <v>0</v>
       </c>
-      <c r="M388" t="s">
+      <c r="M388" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -23870,7 +23871,7 @@
       <c r="L389" t="b">
         <v>1</v>
       </c>
-      <c r="M389" t="s">
+      <c r="M389" s="1" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -23911,7 +23912,7 @@
       <c r="L390" t="b">
         <v>0</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M390" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -23952,7 +23953,7 @@
       <c r="L391" t="b">
         <v>1</v>
       </c>
-      <c r="M391" t="s">
+      <c r="M391" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -23993,7 +23994,7 @@
       <c r="L392" t="b">
         <v>0</v>
       </c>
-      <c r="M392" t="s">
+      <c r="M392" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -24034,7 +24035,7 @@
       <c r="L393" t="b">
         <v>0</v>
       </c>
-      <c r="M393" t="s">
+      <c r="M393" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -24075,7 +24076,7 @@
       <c r="L394" t="b">
         <v>0</v>
       </c>
-      <c r="M394" t="s">
+      <c r="M394" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -24116,7 +24117,7 @@
       <c r="L395" t="b">
         <v>1</v>
       </c>
-      <c r="M395" t="s">
+      <c r="M395" s="1" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -24157,7 +24158,7 @@
       <c r="L396" t="b">
         <v>1</v>
       </c>
-      <c r="M396" t="s">
+      <c r="M396" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -24198,7 +24199,7 @@
       <c r="L397" t="b">
         <v>1</v>
       </c>
-      <c r="M397" t="s">
+      <c r="M397" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -24280,7 +24281,7 @@
       <c r="L399" t="b">
         <v>1</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M399" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -24321,7 +24322,7 @@
       <c r="L400" t="b">
         <v>1</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M400" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -24403,7 +24404,7 @@
       <c r="L402" t="b">
         <v>0</v>
       </c>
-      <c r="M402" t="s">
+      <c r="M402" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -24444,7 +24445,7 @@
       <c r="L403" t="b">
         <v>1</v>
       </c>
-      <c r="M403" t="s">
+      <c r="M403" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -24485,7 +24486,7 @@
       <c r="L404" t="b">
         <v>0</v>
       </c>
-      <c r="M404" t="s">
+      <c r="M404" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -24526,7 +24527,7 @@
       <c r="L405" t="b">
         <v>0</v>
       </c>
-      <c r="M405" t="s">
+      <c r="M405" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -24567,7 +24568,7 @@
       <c r="L406" t="b">
         <v>0</v>
       </c>
-      <c r="M406" t="s">
+      <c r="M406" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -24608,7 +24609,7 @@
       <c r="L407" t="b">
         <v>0</v>
       </c>
-      <c r="M407" t="s">
+      <c r="M407" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -24649,7 +24650,7 @@
       <c r="L408" t="b">
         <v>0</v>
       </c>
-      <c r="M408" t="s">
+      <c r="M408" s="1" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -24690,7 +24691,7 @@
       <c r="L409" t="b">
         <v>0</v>
       </c>
-      <c r="M409" t="s">
+      <c r="M409" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -24731,7 +24732,7 @@
       <c r="L410" t="b">
         <v>0</v>
       </c>
-      <c r="M410" t="s">
+      <c r="M410" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -24772,7 +24773,7 @@
       <c r="L411" t="b">
         <v>0</v>
       </c>
-      <c r="M411" t="s">
+      <c r="M411" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
@@ -24813,7 +24814,7 @@
       <c r="L412" t="b">
         <v>0</v>
       </c>
-      <c r="M412" t="s">
+      <c r="M412" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -24895,7 +24896,7 @@
       <c r="L414" t="b">
         <v>0</v>
       </c>
-      <c r="M414" t="s">
+      <c r="M414" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -24936,7 +24937,7 @@
       <c r="L415" t="b">
         <v>0</v>
       </c>
-      <c r="M415" t="s">
+      <c r="M415" s="1" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -24977,7 +24978,7 @@
       <c r="L416" t="b">
         <v>0</v>
       </c>
-      <c r="M416" t="s">
+      <c r="M416" s="1" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -25018,7 +25019,7 @@
       <c r="L417" t="b">
         <v>1</v>
       </c>
-      <c r="M417" t="s">
+      <c r="M417" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -25059,7 +25060,7 @@
       <c r="L418" t="b">
         <v>0</v>
       </c>
-      <c r="M418" t="s">
+      <c r="M418" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -25100,7 +25101,7 @@
       <c r="L419" t="b">
         <v>0</v>
       </c>
-      <c r="M419" t="s">
+      <c r="M419" s="1" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -25141,7 +25142,7 @@
       <c r="L420" t="b">
         <v>0</v>
       </c>
-      <c r="M420" t="s">
+      <c r="M420" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -25182,7 +25183,7 @@
       <c r="L421" t="b">
         <v>0</v>
       </c>
-      <c r="M421" t="s">
+      <c r="M421" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -25223,7 +25224,7 @@
       <c r="L422" t="b">
         <v>0</v>
       </c>
-      <c r="M422" t="s">
+      <c r="M422" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
@@ -25264,7 +25265,7 @@
       <c r="L423" t="b">
         <v>1</v>
       </c>
-      <c r="M423" t="s">
+      <c r="M423" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
@@ -25346,7 +25347,7 @@
       <c r="L425" t="b">
         <v>0</v>
       </c>
-      <c r="M425" t="s">
+      <c r="M425" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -25387,7 +25388,7 @@
       <c r="L426" t="b">
         <v>0</v>
       </c>
-      <c r="M426" t="s">
+      <c r="M426" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -25428,7 +25429,7 @@
       <c r="L427" t="b">
         <v>0</v>
       </c>
-      <c r="M427" t="s">
+      <c r="M427" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -25469,7 +25470,7 @@
       <c r="L428" t="b">
         <v>1</v>
       </c>
-      <c r="M428" t="s">
+      <c r="M428" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -25510,7 +25511,7 @@
       <c r="L429" t="b">
         <v>0</v>
       </c>
-      <c r="M429" t="s">
+      <c r="M429" s="1" t="s">
         <v>1314</v>
       </c>
     </row>
@@ -25551,7 +25552,7 @@
       <c r="L430" t="b">
         <v>0</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M430" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -25592,7 +25593,7 @@
       <c r="L431" t="b">
         <v>0</v>
       </c>
-      <c r="M431" t="s">
+      <c r="M431" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -25633,7 +25634,7 @@
       <c r="L432" t="b">
         <v>1</v>
       </c>
-      <c r="M432" t="s">
+      <c r="M432" s="1" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -25674,7 +25675,7 @@
       <c r="L433" t="b">
         <v>0</v>
       </c>
-      <c r="M433" t="s">
+      <c r="M433" s="1" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -25715,7 +25716,7 @@
       <c r="L434" t="b">
         <v>0</v>
       </c>
-      <c r="M434" t="s">
+      <c r="M434" s="1" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -25756,7 +25757,7 @@
       <c r="L435" t="b">
         <v>0</v>
       </c>
-      <c r="M435" t="s">
+      <c r="M435" s="1" t="s">
         <v>1330</v>
       </c>
     </row>
@@ -25838,7 +25839,7 @@
       <c r="L437" t="b">
         <v>0</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M437" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -25879,7 +25880,7 @@
       <c r="L438" t="b">
         <v>1</v>
       </c>
-      <c r="M438" t="s">
+      <c r="M438" s="1" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -25920,7 +25921,7 @@
       <c r="L439" t="b">
         <v>0</v>
       </c>
-      <c r="M439" t="s">
+      <c r="M439" s="1" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -26002,7 +26003,7 @@
       <c r="L441" t="b">
         <v>0</v>
       </c>
-      <c r="M441" t="s">
+      <c r="M441" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -26043,7 +26044,7 @@
       <c r="L442" t="b">
         <v>0</v>
       </c>
-      <c r="M442" t="s">
+      <c r="M442" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -26084,7 +26085,7 @@
       <c r="L443" t="b">
         <v>0</v>
       </c>
-      <c r="M443" t="s">
+      <c r="M443" s="1" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -26125,7 +26126,7 @@
       <c r="L444" t="b">
         <v>0</v>
       </c>
-      <c r="M444" t="s">
+      <c r="M444" s="1" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -26166,7 +26167,7 @@
       <c r="L445" t="b">
         <v>0</v>
       </c>
-      <c r="M445" t="s">
+      <c r="M445" s="1" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -26207,7 +26208,7 @@
       <c r="L446" t="b">
         <v>0</v>
       </c>
-      <c r="M446" t="s">
+      <c r="M446" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -26248,7 +26249,7 @@
       <c r="L447" t="b">
         <v>0</v>
       </c>
-      <c r="M447" t="s">
+      <c r="M447" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -26330,7 +26331,7 @@
       <c r="L449" t="b">
         <v>0</v>
       </c>
-      <c r="M449" t="s">
+      <c r="M449" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -26371,7 +26372,7 @@
       <c r="L450" t="b">
         <v>0</v>
       </c>
-      <c r="M450" t="s">
+      <c r="M450" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -26494,7 +26495,7 @@
       <c r="L453" t="b">
         <v>0</v>
       </c>
-      <c r="M453" t="s">
+      <c r="M453" s="1" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -26535,7 +26536,7 @@
       <c r="L454" t="b">
         <v>0</v>
       </c>
-      <c r="M454" t="s">
+      <c r="M454" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -26576,7 +26577,7 @@
       <c r="L455" t="b">
         <v>0</v>
       </c>
-      <c r="M455" t="s">
+      <c r="M455" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -26617,7 +26618,7 @@
       <c r="L456" t="b">
         <v>0</v>
       </c>
-      <c r="M456" t="s">
+      <c r="M456" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -26658,7 +26659,7 @@
       <c r="L457" t="b">
         <v>0</v>
       </c>
-      <c r="M457" t="s">
+      <c r="M457" s="1" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -26699,7 +26700,7 @@
       <c r="L458" t="b">
         <v>1</v>
       </c>
-      <c r="M458" t="s">
+      <c r="M458" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -26740,7 +26741,7 @@
       <c r="L459" t="b">
         <v>0</v>
       </c>
-      <c r="M459" t="s">
+      <c r="M459" s="1" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -26781,7 +26782,7 @@
       <c r="L460" t="b">
         <v>0</v>
       </c>
-      <c r="M460" t="s">
+      <c r="M460" s="1" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -26822,7 +26823,7 @@
       <c r="L461" t="b">
         <v>0</v>
       </c>
-      <c r="M461" t="s">
+      <c r="M461" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -26863,7 +26864,7 @@
       <c r="L462" t="b">
         <v>0</v>
       </c>
-      <c r="M462" t="s">
+      <c r="M462" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -26904,7 +26905,7 @@
       <c r="L463" t="b">
         <v>0</v>
       </c>
-      <c r="M463" t="s">
+      <c r="M463" s="1" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -26945,7 +26946,7 @@
       <c r="L464" t="b">
         <v>0</v>
       </c>
-      <c r="M464" t="s">
+      <c r="M464" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
@@ -26986,7 +26987,7 @@
       <c r="L465" t="b">
         <v>0</v>
       </c>
-      <c r="M465" t="s">
+      <c r="M465" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -27027,7 +27028,7 @@
       <c r="L466" t="b">
         <v>1</v>
       </c>
-      <c r="M466" t="s">
+      <c r="M466" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
@@ -27109,7 +27110,7 @@
       <c r="L468" t="b">
         <v>0</v>
       </c>
-      <c r="M468" t="s">
+      <c r="M468" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -27150,7 +27151,7 @@
       <c r="L469" t="b">
         <v>0</v>
       </c>
-      <c r="M469" t="s">
+      <c r="M469" s="1" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -27191,7 +27192,7 @@
       <c r="L470" t="b">
         <v>0</v>
       </c>
-      <c r="M470" t="s">
+      <c r="M470" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -27232,7 +27233,7 @@
       <c r="L471" t="b">
         <v>0</v>
       </c>
-      <c r="M471" t="s">
+      <c r="M471" s="1" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -27273,7 +27274,7 @@
       <c r="L472" t="b">
         <v>0</v>
       </c>
-      <c r="M472" t="s">
+      <c r="M472" s="1" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -27314,7 +27315,7 @@
       <c r="L473" t="b">
         <v>0</v>
       </c>
-      <c r="M473" t="s">
+      <c r="M473" s="1" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -27355,7 +27356,7 @@
       <c r="L474" t="b">
         <v>1</v>
       </c>
-      <c r="M474" t="s">
+      <c r="M474" s="1" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -27396,7 +27397,7 @@
       <c r="L475" t="b">
         <v>0</v>
       </c>
-      <c r="M475" t="s">
+      <c r="M475" s="1" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -27437,7 +27438,7 @@
       <c r="L476" t="b">
         <v>1</v>
       </c>
-      <c r="M476" t="s">
+      <c r="M476" s="1" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -27478,7 +27479,7 @@
       <c r="L477" t="b">
         <v>0</v>
       </c>
-      <c r="M477" t="s">
+      <c r="M477" s="1" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -27519,7 +27520,7 @@
       <c r="L478" t="b">
         <v>0</v>
       </c>
-      <c r="M478" t="s">
+      <c r="M478" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -27560,7 +27561,7 @@
       <c r="L479" t="b">
         <v>0</v>
       </c>
-      <c r="M479" t="s">
+      <c r="M479" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -27601,7 +27602,7 @@
       <c r="L480" t="b">
         <v>0</v>
       </c>
-      <c r="M480" t="s">
+      <c r="M480" s="1" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -27683,7 +27684,7 @@
       <c r="L482" t="b">
         <v>0</v>
       </c>
-      <c r="M482" t="s">
+      <c r="M482" s="1" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -27724,7 +27725,7 @@
       <c r="L483" t="b">
         <v>0</v>
       </c>
-      <c r="M483" t="s">
+      <c r="M483" s="1" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -27765,7 +27766,7 @@
       <c r="L484" t="b">
         <v>0</v>
       </c>
-      <c r="M484" t="s">
+      <c r="M484" s="1" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -27806,7 +27807,7 @@
       <c r="L485" t="b">
         <v>0</v>
       </c>
-      <c r="M485" t="s">
+      <c r="M485" s="1" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -27847,7 +27848,7 @@
       <c r="L486" t="b">
         <v>0</v>
       </c>
-      <c r="M486" t="s">
+      <c r="M486" s="1" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -27888,7 +27889,7 @@
       <c r="L487" t="b">
         <v>0</v>
       </c>
-      <c r="M487" t="s">
+      <c r="M487" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
@@ -27929,7 +27930,7 @@
       <c r="L488" t="b">
         <v>1</v>
       </c>
-      <c r="M488" t="s">
+      <c r="M488" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -27970,7 +27971,7 @@
       <c r="L489" t="b">
         <v>0</v>
       </c>
-      <c r="M489" t="s">
+      <c r="M489" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -28011,7 +28012,7 @@
       <c r="L490" t="b">
         <v>1</v>
       </c>
-      <c r="M490" t="s">
+      <c r="M490" s="1" t="s">
         <v>1493</v>
       </c>
     </row>
@@ -28052,7 +28053,7 @@
       <c r="L491" t="b">
         <v>0</v>
       </c>
-      <c r="M491" t="s">
+      <c r="M491" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -28093,7 +28094,7 @@
       <c r="L492" t="b">
         <v>0</v>
       </c>
-      <c r="M492" t="s">
+      <c r="M492" s="1" t="s">
         <v>1499</v>
       </c>
     </row>
@@ -28134,7 +28135,7 @@
       <c r="L493" t="b">
         <v>0</v>
       </c>
-      <c r="M493" t="s">
+      <c r="M493" s="1" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -28175,7 +28176,7 @@
       <c r="L494" t="b">
         <v>0</v>
       </c>
-      <c r="M494" t="s">
+      <c r="M494" s="1" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -28216,7 +28217,7 @@
       <c r="L495" t="b">
         <v>0</v>
       </c>
-      <c r="M495" t="s">
+      <c r="M495" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -28257,7 +28258,7 @@
       <c r="L496" t="b">
         <v>0</v>
       </c>
-      <c r="M496" t="s">
+      <c r="M496" s="1" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -28298,7 +28299,7 @@
       <c r="L497" t="b">
         <v>0</v>
       </c>
-      <c r="M497" t="s">
+      <c r="M497" s="1" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -28339,7 +28340,7 @@
       <c r="L498" t="b">
         <v>0</v>
       </c>
-      <c r="M498" t="s">
+      <c r="M498" s="1" t="s">
         <v>1516</v>
       </c>
     </row>
@@ -28380,7 +28381,7 @@
       <c r="L499" t="b">
         <v>0</v>
       </c>
-      <c r="M499" t="s">
+      <c r="M499" s="1" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -28421,7 +28422,7 @@
       <c r="L500" t="b">
         <v>0</v>
       </c>
-      <c r="M500" t="s">
+      <c r="M500" s="1" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -28462,7 +28463,7 @@
       <c r="L501" t="b">
         <v>0</v>
       </c>
-      <c r="M501" t="s">
+      <c r="M501" s="1" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -28503,7 +28504,7 @@
       <c r="L502" t="b">
         <v>0</v>
       </c>
-      <c r="M502" t="s">
+      <c r="M502" s="1" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -28544,7 +28545,7 @@
       <c r="L503" t="b">
         <v>0</v>
       </c>
-      <c r="M503" t="s">
+      <c r="M503" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -28585,7 +28586,7 @@
       <c r="L504" t="b">
         <v>0</v>
       </c>
-      <c r="M504" t="s">
+      <c r="M504" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -28626,7 +28627,7 @@
       <c r="L505" t="b">
         <v>0</v>
       </c>
-      <c r="M505" t="s">
+      <c r="M505" s="1" t="s">
         <v>1537</v>
       </c>
     </row>
@@ -28667,7 +28668,7 @@
       <c r="L506" t="b">
         <v>1</v>
       </c>
-      <c r="M506" t="s">
+      <c r="M506" s="1" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -28749,7 +28750,7 @@
       <c r="L508" t="b">
         <v>0</v>
       </c>
-      <c r="M508" t="s">
+      <c r="M508" s="1" t="s">
         <v>1546</v>
       </c>
     </row>
@@ -28790,7 +28791,7 @@
       <c r="L509" t="b">
         <v>0</v>
       </c>
-      <c r="M509" t="s">
+      <c r="M509" s="1" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -28831,7 +28832,7 @@
       <c r="L510" t="b">
         <v>0</v>
       </c>
-      <c r="M510" t="s">
+      <c r="M510" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -28872,7 +28873,7 @@
       <c r="L511" t="b">
         <v>1</v>
       </c>
-      <c r="M511" t="s">
+      <c r="M511" s="1" t="s">
         <v>1555</v>
       </c>
     </row>
@@ -28913,7 +28914,7 @@
       <c r="L512" t="b">
         <v>0</v>
       </c>
-      <c r="M512" t="s">
+      <c r="M512" s="1" t="s">
         <v>1558</v>
       </c>
     </row>
@@ -28954,7 +28955,7 @@
       <c r="L513" t="b">
         <v>0</v>
       </c>
-      <c r="M513" t="s">
+      <c r="M513" s="1" t="s">
         <v>1561</v>
       </c>
     </row>
@@ -28995,7 +28996,7 @@
       <c r="L514" t="b">
         <v>1</v>
       </c>
-      <c r="M514" t="s">
+      <c r="M514" s="1" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -29036,7 +29037,7 @@
       <c r="L515" t="b">
         <v>0</v>
       </c>
-      <c r="M515" t="s">
+      <c r="M515" s="1" t="s">
         <v>1566</v>
       </c>
     </row>
@@ -29077,7 +29078,7 @@
       <c r="L516" t="b">
         <v>0</v>
       </c>
-      <c r="M516" t="s">
+      <c r="M516" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -29118,7 +29119,7 @@
       <c r="L517" t="b">
         <v>0</v>
       </c>
-      <c r="M517" t="s">
+      <c r="M517" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -29159,7 +29160,7 @@
       <c r="L518" t="b">
         <v>0</v>
       </c>
-      <c r="M518" t="s">
+      <c r="M518" s="1" t="s">
         <v>1575</v>
       </c>
     </row>
@@ -29200,7 +29201,7 @@
       <c r="L519" t="b">
         <v>1</v>
       </c>
-      <c r="M519" t="s">
+      <c r="M519" s="1" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -29241,7 +29242,7 @@
       <c r="L520" t="b">
         <v>0</v>
       </c>
-      <c r="M520" t="s">
+      <c r="M520" s="1" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -29282,7 +29283,7 @@
       <c r="L521" t="b">
         <v>1</v>
       </c>
-      <c r="M521" t="s">
+      <c r="M521" s="1" t="s">
         <v>1583</v>
       </c>
     </row>
@@ -29323,7 +29324,7 @@
       <c r="L522" t="b">
         <v>0</v>
       </c>
-      <c r="M522" t="s">
+      <c r="M522" s="1" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -29364,7 +29365,7 @@
       <c r="L523" t="b">
         <v>0</v>
       </c>
-      <c r="M523" t="s">
+      <c r="M523" s="1" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -29446,7 +29447,7 @@
       <c r="L525" t="b">
         <v>0</v>
       </c>
-      <c r="M525" t="s">
+      <c r="M525" s="1" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -29487,7 +29488,7 @@
       <c r="L526" t="b">
         <v>0</v>
       </c>
-      <c r="M526" t="s">
+      <c r="M526" s="1" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -29528,7 +29529,7 @@
       <c r="L527" t="b">
         <v>0</v>
       </c>
-      <c r="M527" t="s">
+      <c r="M527" s="1" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -29569,7 +29570,7 @@
       <c r="L528" t="b">
         <v>0</v>
       </c>
-      <c r="M528" t="s">
+      <c r="M528" s="1" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -29610,7 +29611,7 @@
       <c r="L529" t="b">
         <v>1</v>
       </c>
-      <c r="M529" t="s">
+      <c r="M529" s="1" t="s">
         <v>1607</v>
       </c>
     </row>
@@ -29651,7 +29652,7 @@
       <c r="L530" t="b">
         <v>0</v>
       </c>
-      <c r="M530" t="s">
+      <c r="M530" s="1" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -29692,7 +29693,7 @@
       <c r="L531" t="b">
         <v>0</v>
       </c>
-      <c r="M531" t="s">
+      <c r="M531" s="1" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -29733,7 +29734,7 @@
       <c r="L532" t="b">
         <v>0</v>
       </c>
-      <c r="M532" t="s">
+      <c r="M532" s="1" t="s">
         <v>1616</v>
       </c>
     </row>
@@ -29774,7 +29775,7 @@
       <c r="L533" t="b">
         <v>0</v>
       </c>
-      <c r="M533" t="s">
+      <c r="M533" s="1" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -29815,7 +29816,7 @@
       <c r="L534" t="b">
         <v>0</v>
       </c>
-      <c r="M534" t="s">
+      <c r="M534" s="1" t="s">
         <v>1622</v>
       </c>
     </row>
@@ -29856,7 +29857,7 @@
       <c r="L535" t="b">
         <v>0</v>
       </c>
-      <c r="M535" t="s">
+      <c r="M535" s="1" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -29897,7 +29898,7 @@
       <c r="L536" t="b">
         <v>0</v>
       </c>
-      <c r="M536" t="s">
+      <c r="M536" s="1" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -29938,7 +29939,7 @@
       <c r="L537" t="b">
         <v>0</v>
       </c>
-      <c r="M537" t="s">
+      <c r="M537" s="1" t="s">
         <v>1631</v>
       </c>
     </row>
@@ -30020,7 +30021,7 @@
       <c r="L539" t="b">
         <v>0</v>
       </c>
-      <c r="M539" t="s">
+      <c r="M539" s="1" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -30061,7 +30062,7 @@
       <c r="L540" t="b">
         <v>0</v>
       </c>
-      <c r="M540" t="s">
+      <c r="M540" s="1" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -30102,7 +30103,7 @@
       <c r="L541" t="b">
         <v>0</v>
       </c>
-      <c r="M541" t="s">
+      <c r="M541" s="1" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -30143,7 +30144,7 @@
       <c r="L542" t="b">
         <v>0</v>
       </c>
-      <c r="M542" t="s">
+      <c r="M542" s="1" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -30184,7 +30185,7 @@
       <c r="L543" t="b">
         <v>0</v>
       </c>
-      <c r="M543" t="s">
+      <c r="M543" s="1" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -30225,7 +30226,7 @@
       <c r="L544" t="b">
         <v>1</v>
       </c>
-      <c r="M544" t="s">
+      <c r="M544" s="1" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -30266,7 +30267,7 @@
       <c r="L545" t="b">
         <v>0</v>
       </c>
-      <c r="M545" t="s">
+      <c r="M545" s="1" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -30307,7 +30308,7 @@
       <c r="L546" t="b">
         <v>0</v>
       </c>
-      <c r="M546" t="s">
+      <c r="M546" s="1" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -30348,7 +30349,7 @@
       <c r="L547" t="b">
         <v>0</v>
       </c>
-      <c r="M547" t="s">
+      <c r="M547" s="1" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -30389,7 +30390,7 @@
       <c r="L548" t="b">
         <v>0</v>
       </c>
-      <c r="M548" t="s">
+      <c r="M548" s="1" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -30430,7 +30431,7 @@
       <c r="L549" t="b">
         <v>1</v>
       </c>
-      <c r="M549" t="s">
+      <c r="M549" s="1" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -30471,7 +30472,7 @@
       <c r="L550" t="b">
         <v>0</v>
       </c>
-      <c r="M550" t="s">
+      <c r="M550" s="1" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -30553,7 +30554,7 @@
       <c r="L552" t="b">
         <v>1</v>
       </c>
-      <c r="M552" t="s">
+      <c r="M552" s="1" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -30594,7 +30595,7 @@
       <c r="L553" t="b">
         <v>0</v>
       </c>
-      <c r="M553" t="s">
+      <c r="M553" s="1" t="s">
         <v>1679</v>
       </c>
     </row>
@@ -30635,7 +30636,7 @@
       <c r="L554" t="b">
         <v>0</v>
       </c>
-      <c r="M554" t="s">
+      <c r="M554" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
@@ -30676,7 +30677,7 @@
       <c r="L555" t="b">
         <v>0</v>
       </c>
-      <c r="M555" t="s">
+      <c r="M555" s="1" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -30717,7 +30718,7 @@
       <c r="L556" t="b">
         <v>0</v>
       </c>
-      <c r="M556" t="s">
+      <c r="M556" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -30758,7 +30759,7 @@
       <c r="L557" t="b">
         <v>0</v>
       </c>
-      <c r="M557" t="s">
+      <c r="M557" s="1" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -30799,7 +30800,7 @@
       <c r="L558" t="b">
         <v>0</v>
       </c>
-      <c r="M558" t="s">
+      <c r="M558" s="1" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -30840,7 +30841,7 @@
       <c r="L559" t="b">
         <v>0</v>
       </c>
-      <c r="M559" t="s">
+      <c r="M559" s="1" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -30881,7 +30882,7 @@
       <c r="L560" t="b">
         <v>1</v>
       </c>
-      <c r="M560" t="s">
+      <c r="M560" s="1" t="s">
         <v>1699</v>
       </c>
     </row>
@@ -30963,7 +30964,7 @@
       <c r="L562" t="b">
         <v>0</v>
       </c>
-      <c r="M562" t="s">
+      <c r="M562" s="1" t="s">
         <v>1706</v>
       </c>
     </row>
@@ -31004,7 +31005,7 @@
       <c r="L563" t="b">
         <v>0</v>
       </c>
-      <c r="M563" t="s">
+      <c r="M563" s="1" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -31045,7 +31046,7 @@
       <c r="L564" t="b">
         <v>0</v>
       </c>
-      <c r="M564" t="s">
+      <c r="M564" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -31086,7 +31087,7 @@
       <c r="L565" t="b">
         <v>0</v>
       </c>
-      <c r="M565" t="s">
+      <c r="M565" s="1" t="s">
         <v>1714</v>
       </c>
     </row>
@@ -31127,7 +31128,7 @@
       <c r="L566" t="b">
         <v>0</v>
       </c>
-      <c r="M566" t="s">
+      <c r="M566" s="1" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -31168,7 +31169,7 @@
       <c r="L567" t="b">
         <v>0</v>
       </c>
-      <c r="M567" t="s">
+      <c r="M567" s="1" t="s">
         <v>1720</v>
       </c>
     </row>
@@ -31209,7 +31210,7 @@
       <c r="L568" t="b">
         <v>0</v>
       </c>
-      <c r="M568" t="s">
+      <c r="M568" s="1" t="s">
         <v>1722</v>
       </c>
     </row>
@@ -31250,7 +31251,7 @@
       <c r="L569" t="b">
         <v>1</v>
       </c>
-      <c r="M569" t="s">
+      <c r="M569" s="1" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -31291,7 +31292,7 @@
       <c r="L570" t="b">
         <v>0</v>
       </c>
-      <c r="M570" t="s">
+      <c r="M570" s="1" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -31332,7 +31333,7 @@
       <c r="L571" t="b">
         <v>1</v>
       </c>
-      <c r="M571" t="s">
+      <c r="M571" s="1" t="s">
         <v>1729</v>
       </c>
     </row>
@@ -31373,7 +31374,7 @@
       <c r="L572" t="b">
         <v>1</v>
       </c>
-      <c r="M572" t="s">
+      <c r="M572" s="1" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -31414,7 +31415,7 @@
       <c r="L573" t="b">
         <v>0</v>
       </c>
-      <c r="M573" t="s">
+      <c r="M573" s="1" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -31455,7 +31456,7 @@
       <c r="L574" t="b">
         <v>0</v>
       </c>
-      <c r="M574" t="s">
+      <c r="M574" s="1" t="s">
         <v>1738</v>
       </c>
     </row>
@@ -31537,7 +31538,7 @@
       <c r="L576" t="b">
         <v>0</v>
       </c>
-      <c r="M576" t="s">
+      <c r="M576" s="1" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -31578,7 +31579,7 @@
       <c r="L577" t="b">
         <v>0</v>
       </c>
-      <c r="M577" t="s">
+      <c r="M577" s="1" t="s">
         <v>1745</v>
       </c>
     </row>
@@ -31619,7 +31620,7 @@
       <c r="L578" t="b">
         <v>1</v>
       </c>
-      <c r="M578" t="s">
+      <c r="M578" s="1" t="s">
         <v>1747</v>
       </c>
     </row>
@@ -31660,7 +31661,7 @@
       <c r="L579" t="b">
         <v>0</v>
       </c>
-      <c r="M579" t="s">
+      <c r="M579" s="1" t="s">
         <v>1750</v>
       </c>
     </row>
@@ -31701,7 +31702,7 @@
       <c r="L580" t="b">
         <v>0</v>
       </c>
-      <c r="M580" t="s">
+      <c r="M580" s="1" t="s">
         <v>1753</v>
       </c>
     </row>
@@ -31742,7 +31743,7 @@
       <c r="L581" t="b">
         <v>1</v>
       </c>
-      <c r="M581" t="s">
+      <c r="M581" s="1" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -31783,7 +31784,7 @@
       <c r="L582" t="b">
         <v>0</v>
       </c>
-      <c r="M582" t="s">
+      <c r="M582" s="1" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -31824,7 +31825,7 @@
       <c r="L583" t="b">
         <v>0</v>
       </c>
-      <c r="M583" t="s">
+      <c r="M583" s="1" t="s">
         <v>1761</v>
       </c>
     </row>
@@ -31865,7 +31866,7 @@
       <c r="L584" t="b">
         <v>0</v>
       </c>
-      <c r="M584" t="s">
+      <c r="M584" s="1" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -31906,7 +31907,7 @@
       <c r="L585" t="b">
         <v>0</v>
       </c>
-      <c r="M585" t="s">
+      <c r="M585" s="1" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -31947,7 +31948,7 @@
       <c r="L586" t="b">
         <v>0</v>
       </c>
-      <c r="M586" t="s">
+      <c r="M586" s="1" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -31988,7 +31989,7 @@
       <c r="L587" t="b">
         <v>0</v>
       </c>
-      <c r="M587" t="s">
+      <c r="M587" s="1" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -32029,7 +32030,7 @@
       <c r="L588" t="b">
         <v>0</v>
       </c>
-      <c r="M588" t="s">
+      <c r="M588" s="1" t="s">
         <v>1775</v>
       </c>
     </row>
@@ -32070,7 +32071,7 @@
       <c r="L589" t="b">
         <v>1</v>
       </c>
-      <c r="M589" t="s">
+      <c r="M589" s="1" t="s">
         <v>1777</v>
       </c>
     </row>
@@ -32111,7 +32112,7 @@
       <c r="L590" t="b">
         <v>1</v>
       </c>
-      <c r="M590" t="s">
+      <c r="M590" s="1" t="s">
         <v>1780</v>
       </c>
     </row>
@@ -32152,7 +32153,7 @@
       <c r="L591" t="b">
         <v>0</v>
       </c>
-      <c r="M591" t="s">
+      <c r="M591" s="1" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -32193,7 +32194,7 @@
       <c r="L592" t="b">
         <v>0</v>
       </c>
-      <c r="M592" t="s">
+      <c r="M592" s="1" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -32234,7 +32235,7 @@
       <c r="L593" t="b">
         <v>0</v>
       </c>
-      <c r="M593" t="s">
+      <c r="M593" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -32275,7 +32276,7 @@
       <c r="L594" t="b">
         <v>1</v>
       </c>
-      <c r="M594" t="s">
+      <c r="M594" s="1" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -32316,7 +32317,7 @@
       <c r="L595" t="b">
         <v>0</v>
       </c>
-      <c r="M595" t="s">
+      <c r="M595" s="1" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -32357,7 +32358,7 @@
       <c r="L596" t="b">
         <v>0</v>
       </c>
-      <c r="M596" t="s">
+      <c r="M596" s="1" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -32398,7 +32399,7 @@
       <c r="L597" t="b">
         <v>0</v>
       </c>
-      <c r="M597" t="s">
+      <c r="M597" s="1" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -32439,7 +32440,7 @@
       <c r="L598" t="b">
         <v>0</v>
       </c>
-      <c r="M598" t="s">
+      <c r="M598" s="1" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -32480,7 +32481,7 @@
       <c r="L599" t="b">
         <v>0</v>
       </c>
-      <c r="M599" t="s">
+      <c r="M599" s="1" t="s">
         <v>1807</v>
       </c>
     </row>
@@ -32521,7 +32522,7 @@
       <c r="L600" t="b">
         <v>0</v>
       </c>
-      <c r="M600" t="s">
+      <c r="M600" s="1" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -32562,7 +32563,7 @@
       <c r="L601" t="b">
         <v>0</v>
       </c>
-      <c r="M601" t="s">
+      <c r="M601" s="1" t="s">
         <v>1813</v>
       </c>
     </row>
@@ -32644,7 +32645,7 @@
       <c r="L603" t="b">
         <v>0</v>
       </c>
-      <c r="M603" t="s">
+      <c r="M603" s="1" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -32685,7 +32686,7 @@
       <c r="L604" t="b">
         <v>0</v>
       </c>
-      <c r="M604" t="s">
+      <c r="M604" s="1" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -32726,7 +32727,7 @@
       <c r="L605" t="b">
         <v>0</v>
       </c>
-      <c r="M605" t="s">
+      <c r="M605" s="1" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -32767,7 +32768,7 @@
       <c r="L606" t="b">
         <v>0</v>
       </c>
-      <c r="M606" t="s">
+      <c r="M606" s="1" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -32808,7 +32809,7 @@
       <c r="L607" t="b">
         <v>0</v>
       </c>
-      <c r="M607" t="s">
+      <c r="M607" s="1" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -32890,7 +32891,7 @@
       <c r="L609" t="b">
         <v>0</v>
       </c>
-      <c r="M609" t="s">
+      <c r="M609" s="1" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -32931,7 +32932,7 @@
       <c r="L610" t="b">
         <v>0</v>
       </c>
-      <c r="M610" t="s">
+      <c r="M610" s="1" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -32972,7 +32973,7 @@
       <c r="L611" t="b">
         <v>1</v>
       </c>
-      <c r="M611" t="s">
+      <c r="M611" s="1" t="s">
         <v>1839</v>
       </c>
     </row>
@@ -33013,7 +33014,7 @@
       <c r="L612" t="b">
         <v>0</v>
       </c>
-      <c r="M612" t="s">
+      <c r="M612" s="1" t="s">
         <v>1841</v>
       </c>
     </row>
@@ -33054,7 +33055,7 @@
       <c r="L613" t="b">
         <v>1</v>
       </c>
-      <c r="M613" t="s">
+      <c r="M613" s="1" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -33095,7 +33096,7 @@
       <c r="L614" t="b">
         <v>0</v>
       </c>
-      <c r="M614" t="s">
+      <c r="M614" s="1" t="s">
         <v>1848</v>
       </c>
     </row>
@@ -33136,7 +33137,7 @@
       <c r="L615" t="b">
         <v>0</v>
       </c>
-      <c r="M615" t="s">
+      <c r="M615" s="1" t="s">
         <v>1851</v>
       </c>
     </row>
@@ -33177,7 +33178,7 @@
       <c r="L616" t="b">
         <v>0</v>
       </c>
-      <c r="M616" t="s">
+      <c r="M616" s="1" t="s">
         <v>1854</v>
       </c>
     </row>
@@ -33218,7 +33219,7 @@
       <c r="L617" t="b">
         <v>0</v>
       </c>
-      <c r="M617" t="s">
+      <c r="M617" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -33259,7 +33260,7 @@
       <c r="L618" t="b">
         <v>0</v>
       </c>
-      <c r="M618" t="s">
+      <c r="M618" s="1" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -33300,7 +33301,7 @@
       <c r="L619" t="b">
         <v>0</v>
       </c>
-      <c r="M619" t="s">
+      <c r="M619" s="1" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -33382,7 +33383,7 @@
       <c r="L621" t="b">
         <v>0</v>
       </c>
-      <c r="M621" t="s">
+      <c r="M621" s="1" t="s">
         <v>1869</v>
       </c>
     </row>
@@ -33464,7 +33465,7 @@
       <c r="L623" t="b">
         <v>0</v>
       </c>
-      <c r="M623" t="s">
+      <c r="M623" s="1" t="s">
         <v>1874</v>
       </c>
     </row>
@@ -33505,7 +33506,7 @@
       <c r="L624" t="b">
         <v>0</v>
       </c>
-      <c r="M624" t="s">
+      <c r="M624" s="1" t="s">
         <v>1878</v>
       </c>
     </row>
@@ -33546,7 +33547,7 @@
       <c r="L625" t="b">
         <v>0</v>
       </c>
-      <c r="M625" t="s">
+      <c r="M625" s="1" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -33587,7 +33588,7 @@
       <c r="L626" t="b">
         <v>1</v>
       </c>
-      <c r="M626" t="s">
+      <c r="M626" s="1" t="s">
         <v>1884</v>
       </c>
     </row>
@@ -33628,7 +33629,7 @@
       <c r="L627" t="b">
         <v>0</v>
       </c>
-      <c r="M627" t="s">
+      <c r="M627" s="1" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -33669,7 +33670,7 @@
       <c r="L628" t="b">
         <v>0</v>
       </c>
-      <c r="M628" t="s">
+      <c r="M628" s="1" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -33710,7 +33711,7 @@
       <c r="L629" t="b">
         <v>0</v>
       </c>
-      <c r="M629" t="s">
+      <c r="M629" s="1" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -33751,7 +33752,7 @@
       <c r="L630" t="b">
         <v>0</v>
       </c>
-      <c r="M630" t="s">
+      <c r="M630" s="1" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -33792,7 +33793,7 @@
       <c r="L631" t="b">
         <v>0</v>
       </c>
-      <c r="M631" t="s">
+      <c r="M631" s="1" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -33833,7 +33834,7 @@
       <c r="L632" t="b">
         <v>0</v>
       </c>
-      <c r="M632" t="s">
+      <c r="M632" s="1" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -33874,7 +33875,7 @@
       <c r="L633" t="b">
         <v>0</v>
       </c>
-      <c r="M633" t="s">
+      <c r="M633" s="1" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -33915,7 +33916,7 @@
       <c r="L634" t="b">
         <v>1</v>
       </c>
-      <c r="M634" t="s">
+      <c r="M634" s="1" t="s">
         <v>1907</v>
       </c>
     </row>
@@ -33956,7 +33957,7 @@
       <c r="L635" t="b">
         <v>1</v>
       </c>
-      <c r="M635" t="s">
+      <c r="M635" s="1" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -33997,7 +33998,7 @@
       <c r="L636" t="b">
         <v>1</v>
       </c>
-      <c r="M636" t="s">
+      <c r="M636" s="1" t="s">
         <v>1912</v>
       </c>
     </row>
@@ -34038,7 +34039,7 @@
       <c r="L637" t="b">
         <v>0</v>
       </c>
-      <c r="M637" t="s">
+      <c r="M637" s="1" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -34079,7 +34080,7 @@
       <c r="L638" t="b">
         <v>0</v>
       </c>
-      <c r="M638" t="s">
+      <c r="M638" s="1" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -34161,7 +34162,7 @@
       <c r="L640" t="b">
         <v>0</v>
       </c>
-      <c r="M640" t="s">
+      <c r="M640" s="1" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -34202,7 +34203,7 @@
       <c r="L641" t="b">
         <v>0</v>
       </c>
-      <c r="M641" t="s">
+      <c r="M641" s="1" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -34243,7 +34244,7 @@
       <c r="L642" t="b">
         <v>0</v>
       </c>
-      <c r="M642" t="s">
+      <c r="M642" s="1" t="s">
         <v>1930</v>
       </c>
     </row>
@@ -34284,7 +34285,7 @@
       <c r="L643" t="b">
         <v>1</v>
       </c>
-      <c r="M643" t="s">
+      <c r="M643" s="1" t="s">
         <v>1932</v>
       </c>
     </row>
@@ -34325,7 +34326,7 @@
       <c r="L644" t="b">
         <v>0</v>
       </c>
-      <c r="M644" t="s">
+      <c r="M644" s="1" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -34366,7 +34367,7 @@
       <c r="L645" t="b">
         <v>0</v>
       </c>
-      <c r="M645" t="s">
+      <c r="M645" s="1" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -34407,7 +34408,7 @@
       <c r="L646" t="b">
         <v>0</v>
       </c>
-      <c r="M646" t="s">
+      <c r="M646" s="1" t="s">
         <v>1941</v>
       </c>
     </row>
@@ -34448,7 +34449,7 @@
       <c r="L647" t="b">
         <v>0</v>
       </c>
-      <c r="M647" t="s">
+      <c r="M647" s="1" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -34489,7 +34490,7 @@
       <c r="L648" t="b">
         <v>0</v>
       </c>
-      <c r="M648" t="s">
+      <c r="M648" s="1" t="s">
         <v>1946</v>
       </c>
     </row>
@@ -34530,7 +34531,7 @@
       <c r="L649" t="b">
         <v>0</v>
       </c>
-      <c r="M649" t="s">
+      <c r="M649" s="1" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -34571,7 +34572,7 @@
       <c r="L650" t="b">
         <v>1</v>
       </c>
-      <c r="M650" t="s">
+      <c r="M650" s="1" t="s">
         <v>1951</v>
       </c>
     </row>
@@ -34612,7 +34613,7 @@
       <c r="L651" t="b">
         <v>0</v>
       </c>
-      <c r="M651" t="s">
+      <c r="M651" s="1" t="s">
         <v>1954</v>
       </c>
     </row>
@@ -34653,7 +34654,7 @@
       <c r="L652" t="b">
         <v>0</v>
       </c>
-      <c r="M652" t="s">
+      <c r="M652" s="1" t="s">
         <v>1957</v>
       </c>
     </row>
@@ -34694,7 +34695,7 @@
       <c r="L653" t="b">
         <v>0</v>
       </c>
-      <c r="M653" t="s">
+      <c r="M653" s="1" t="s">
         <v>1960</v>
       </c>
     </row>
@@ -34735,7 +34736,7 @@
       <c r="L654" t="b">
         <v>1</v>
       </c>
-      <c r="M654" t="s">
+      <c r="M654" s="1" t="s">
         <v>1963</v>
       </c>
     </row>
@@ -34776,7 +34777,7 @@
       <c r="L655" t="b">
         <v>0</v>
       </c>
-      <c r="M655" t="s">
+      <c r="M655" s="1" t="s">
         <v>1965</v>
       </c>
     </row>
@@ -34817,7 +34818,7 @@
       <c r="L656" t="b">
         <v>0</v>
       </c>
-      <c r="M656" t="s">
+      <c r="M656" s="1" t="s">
         <v>1967</v>
       </c>
     </row>
@@ -34858,7 +34859,7 @@
       <c r="L657" t="b">
         <v>0</v>
       </c>
-      <c r="M657" t="s">
+      <c r="M657" s="1" t="s">
         <v>1970</v>
       </c>
     </row>
@@ -34899,7 +34900,7 @@
       <c r="L658" t="b">
         <v>0</v>
       </c>
-      <c r="M658" t="s">
+      <c r="M658" s="1" t="s">
         <v>1973</v>
       </c>
     </row>
@@ -34981,7 +34982,7 @@
       <c r="L660" t="b">
         <v>0</v>
       </c>
-      <c r="M660" t="s">
+      <c r="M660" s="1" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -35022,7 +35023,7 @@
       <c r="L661" t="b">
         <v>0</v>
       </c>
-      <c r="M661" t="s">
+      <c r="M661" s="1" t="s">
         <v>1981</v>
       </c>
     </row>
@@ -35063,7 +35064,7 @@
       <c r="L662" t="b">
         <v>0</v>
       </c>
-      <c r="M662" t="s">
+      <c r="M662" s="1" t="s">
         <v>1984</v>
       </c>
     </row>
@@ -35104,7 +35105,7 @@
       <c r="L663" t="b">
         <v>0</v>
       </c>
-      <c r="M663" t="s">
+      <c r="M663" s="1" t="s">
         <v>1987</v>
       </c>
     </row>
@@ -35145,7 +35146,7 @@
       <c r="L664" t="b">
         <v>0</v>
       </c>
-      <c r="M664" t="s">
+      <c r="M664" s="1" t="s">
         <v>1990</v>
       </c>
     </row>
@@ -35186,7 +35187,7 @@
       <c r="L665" t="b">
         <v>0</v>
       </c>
-      <c r="M665" t="s">
+      <c r="M665" s="1" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -35227,7 +35228,7 @@
       <c r="L666" t="b">
         <v>0</v>
       </c>
-      <c r="M666" t="s">
+      <c r="M666" s="1" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -35268,7 +35269,7 @@
       <c r="L667" t="b">
         <v>0</v>
       </c>
-      <c r="M667" t="s">
+      <c r="M667" s="1" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -35309,7 +35310,7 @@
       <c r="L668" t="b">
         <v>0</v>
       </c>
-      <c r="M668" t="s">
+      <c r="M668" s="1" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -35350,7 +35351,7 @@
       <c r="L669" t="b">
         <v>0</v>
       </c>
-      <c r="M669" t="s">
+      <c r="M669" s="1" t="s">
         <v>2004</v>
       </c>
     </row>
@@ -35391,7 +35392,7 @@
       <c r="L670" t="b">
         <v>0</v>
       </c>
-      <c r="M670" t="s">
+      <c r="M670" s="1" t="s">
         <v>2007</v>
       </c>
     </row>
@@ -35432,7 +35433,7 @@
       <c r="L671" t="b">
         <v>0</v>
       </c>
-      <c r="M671" t="s">
+      <c r="M671" s="1" t="s">
         <v>2010</v>
       </c>
     </row>
@@ -35473,7 +35474,7 @@
       <c r="L672" t="b">
         <v>0</v>
       </c>
-      <c r="M672" t="s">
+      <c r="M672" s="1" t="s">
         <v>2014</v>
       </c>
     </row>
@@ -35514,7 +35515,7 @@
       <c r="L673" t="b">
         <v>0</v>
       </c>
-      <c r="M673" t="s">
+      <c r="M673" s="1" t="s">
         <v>2017</v>
       </c>
     </row>
@@ -35596,7 +35597,7 @@
       <c r="L675" t="b">
         <v>1</v>
       </c>
-      <c r="M675" t="s">
+      <c r="M675" s="1" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -35637,7 +35638,7 @@
       <c r="L676" t="b">
         <v>0</v>
       </c>
-      <c r="M676" t="s">
+      <c r="M676" s="1" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -35678,7 +35679,7 @@
       <c r="L677" t="b">
         <v>0</v>
       </c>
-      <c r="M677" t="s">
+      <c r="M677" s="1" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -35760,7 +35761,7 @@
       <c r="L679" t="b">
         <v>0</v>
       </c>
-      <c r="M679" t="s">
+      <c r="M679" s="1" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -35801,7 +35802,7 @@
       <c r="L680" t="b">
         <v>0</v>
       </c>
-      <c r="M680" t="s">
+      <c r="M680" s="1" t="s">
         <v>2037</v>
       </c>
     </row>
@@ -35842,7 +35843,7 @@
       <c r="L681" t="b">
         <v>0</v>
       </c>
-      <c r="M681" t="s">
+      <c r="M681" s="1" t="s">
         <v>2040</v>
       </c>
     </row>
@@ -35883,7 +35884,7 @@
       <c r="L682" t="b">
         <v>0</v>
       </c>
-      <c r="M682" t="s">
+      <c r="M682" s="1" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -35924,7 +35925,7 @@
       <c r="L683" t="b">
         <v>0</v>
       </c>
-      <c r="M683" t="s">
+      <c r="M683" s="1" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -35965,7 +35966,7 @@
       <c r="L684" t="b">
         <v>0</v>
       </c>
-      <c r="M684" t="s">
+      <c r="M684" s="1" t="s">
         <v>2049</v>
       </c>
     </row>
@@ -36088,7 +36089,7 @@
       <c r="L687" t="b">
         <v>0</v>
       </c>
-      <c r="M687" t="s">
+      <c r="M687" s="1" t="s">
         <v>2057</v>
       </c>
     </row>
@@ -36129,7 +36130,7 @@
       <c r="L688" t="b">
         <v>0</v>
       </c>
-      <c r="M688" t="s">
+      <c r="M688" s="1" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -36170,7 +36171,7 @@
       <c r="L689" t="b">
         <v>0</v>
       </c>
-      <c r="M689" t="s">
+      <c r="M689" s="1" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -36211,7 +36212,7 @@
       <c r="L690" t="b">
         <v>0</v>
       </c>
-      <c r="M690" t="s">
+      <c r="M690" s="1" t="s">
         <v>2066</v>
       </c>
     </row>
@@ -36252,7 +36253,7 @@
       <c r="L691" t="b">
         <v>1</v>
       </c>
-      <c r="M691" t="s">
+      <c r="M691" s="1" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -36293,7 +36294,7 @@
       <c r="L692" t="b">
         <v>1</v>
       </c>
-      <c r="M692" t="s">
+      <c r="M692" s="1" t="s">
         <v>2071</v>
       </c>
     </row>
@@ -36334,7 +36335,7 @@
       <c r="L693" t="b">
         <v>0</v>
       </c>
-      <c r="M693" t="s">
+      <c r="M693" s="1" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -36416,7 +36417,7 @@
       <c r="L695" t="b">
         <v>0</v>
       </c>
-      <c r="M695" t="s">
+      <c r="M695" s="1" t="s">
         <v>2079</v>
       </c>
     </row>
@@ -36457,7 +36458,7 @@
       <c r="L696" t="b">
         <v>0</v>
       </c>
-      <c r="M696" t="s">
+      <c r="M696" s="1" t="s">
         <v>2082</v>
       </c>
     </row>
@@ -36498,7 +36499,7 @@
       <c r="L697" t="b">
         <v>0</v>
       </c>
-      <c r="M697" t="s">
+      <c r="M697" s="1" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -36539,7 +36540,7 @@
       <c r="L698" t="b">
         <v>0</v>
       </c>
-      <c r="M698" t="s">
+      <c r="M698" s="1" t="s">
         <v>2088</v>
       </c>
     </row>
@@ -36580,7 +36581,7 @@
       <c r="L699" t="b">
         <v>0</v>
       </c>
-      <c r="M699" t="s">
+      <c r="M699" s="1" t="s">
         <v>2090</v>
       </c>
     </row>
@@ -36621,7 +36622,7 @@
       <c r="L700" t="b">
         <v>0</v>
       </c>
-      <c r="M700" t="s">
+      <c r="M700" s="1" t="s">
         <v>2093</v>
       </c>
     </row>
@@ -36744,7 +36745,7 @@
       <c r="L703" t="b">
         <v>0</v>
       </c>
-      <c r="M703" t="s">
+      <c r="M703" s="1" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -36785,7 +36786,7 @@
       <c r="L704" t="b">
         <v>0</v>
       </c>
-      <c r="M704" t="s">
+      <c r="M704" s="1" t="s">
         <v>2104</v>
       </c>
     </row>
@@ -36826,7 +36827,7 @@
       <c r="L705" t="b">
         <v>0</v>
       </c>
-      <c r="M705" t="s">
+      <c r="M705" s="1" t="s">
         <v>2106</v>
       </c>
     </row>
@@ -36867,7 +36868,7 @@
       <c r="L706" t="b">
         <v>0</v>
       </c>
-      <c r="M706" t="s">
+      <c r="M706" s="1" t="s">
         <v>2108</v>
       </c>
     </row>
@@ -36908,7 +36909,7 @@
       <c r="L707" t="b">
         <v>0</v>
       </c>
-      <c r="M707" t="s">
+      <c r="M707" s="1" t="s">
         <v>2111</v>
       </c>
     </row>
@@ -36949,7 +36950,7 @@
       <c r="L708" t="b">
         <v>0</v>
       </c>
-      <c r="M708" t="s">
+      <c r="M708" s="1" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -36990,7 +36991,7 @@
       <c r="L709" t="b">
         <v>0</v>
       </c>
-      <c r="M709" t="s">
+      <c r="M709" s="1" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -37031,7 +37032,7 @@
       <c r="L710" t="b">
         <v>0</v>
       </c>
-      <c r="M710" t="s">
+      <c r="M710" s="1" t="s">
         <v>2119</v>
       </c>
     </row>
@@ -37072,7 +37073,7 @@
       <c r="L711" t="b">
         <v>1</v>
       </c>
-      <c r="M711" t="s">
+      <c r="M711" s="1" t="s">
         <v>2121</v>
       </c>
     </row>
@@ -37113,7 +37114,7 @@
       <c r="L712" t="b">
         <v>0</v>
       </c>
-      <c r="M712" t="s">
+      <c r="M712" s="1" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -37154,7 +37155,7 @@
       <c r="L713" t="b">
         <v>0</v>
       </c>
-      <c r="M713" t="s">
+      <c r="M713" s="1" t="s">
         <v>2127</v>
       </c>
     </row>
@@ -37195,7 +37196,7 @@
       <c r="L714" t="b">
         <v>0</v>
       </c>
-      <c r="M714" t="s">
+      <c r="M714" s="1" t="s">
         <v>2130</v>
       </c>
     </row>
@@ -37236,7 +37237,7 @@
       <c r="L715" t="b">
         <v>1</v>
       </c>
-      <c r="M715" t="s">
+      <c r="M715" s="1" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -37277,7 +37278,7 @@
       <c r="L716" t="b">
         <v>1</v>
       </c>
-      <c r="M716" t="s">
+      <c r="M716" s="1" t="s">
         <v>2136</v>
       </c>
     </row>
@@ -37318,7 +37319,7 @@
       <c r="L717" t="b">
         <v>0</v>
       </c>
-      <c r="M717" t="s">
+      <c r="M717" s="1" t="s">
         <v>2139</v>
       </c>
     </row>
@@ -37359,7 +37360,7 @@
       <c r="L718" t="b">
         <v>0</v>
       </c>
-      <c r="M718" t="s">
+      <c r="M718" s="1" t="s">
         <v>2142</v>
       </c>
     </row>
@@ -37400,7 +37401,7 @@
       <c r="L719" t="b">
         <v>0</v>
       </c>
-      <c r="M719" t="s">
+      <c r="M719" s="1" t="s">
         <v>2146</v>
       </c>
     </row>
@@ -37441,7 +37442,7 @@
       <c r="L720" t="b">
         <v>0</v>
       </c>
-      <c r="M720" t="s">
+      <c r="M720" s="1" t="s">
         <v>2148</v>
       </c>
     </row>
@@ -37482,7 +37483,7 @@
       <c r="L721" t="b">
         <v>0</v>
       </c>
-      <c r="M721" t="s">
+      <c r="M721" s="1" t="s">
         <v>2151</v>
       </c>
     </row>
@@ -37564,7 +37565,7 @@
       <c r="L723" t="b">
         <v>0</v>
       </c>
-      <c r="M723" t="s">
+      <c r="M723" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
@@ -37605,7 +37606,7 @@
       <c r="L724" t="b">
         <v>1</v>
       </c>
-      <c r="M724" t="s">
+      <c r="M724" s="1" t="s">
         <v>2160</v>
       </c>
     </row>
@@ -37646,7 +37647,7 @@
       <c r="L725" t="b">
         <v>0</v>
       </c>
-      <c r="M725" t="s">
+      <c r="M725" s="1" t="s">
         <v>2163</v>
       </c>
     </row>
@@ -37687,7 +37688,7 @@
       <c r="L726" t="b">
         <v>0</v>
       </c>
-      <c r="M726" t="s">
+      <c r="M726" s="1" t="s">
         <v>2165</v>
       </c>
     </row>
@@ -37769,7 +37770,7 @@
       <c r="L728" t="b">
         <v>1</v>
       </c>
-      <c r="M728" t="s">
+      <c r="M728" s="1" t="s">
         <v>2170</v>
       </c>
     </row>
@@ -37810,7 +37811,7 @@
       <c r="L729" t="b">
         <v>0</v>
       </c>
-      <c r="M729" t="s">
+      <c r="M729" s="1" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -37851,7 +37852,7 @@
       <c r="L730" t="b">
         <v>0</v>
       </c>
-      <c r="M730" t="s">
+      <c r="M730" s="1" t="s">
         <v>2176</v>
       </c>
     </row>
@@ -37892,7 +37893,7 @@
       <c r="L731" t="b">
         <v>0</v>
       </c>
-      <c r="M731" t="s">
+      <c r="M731" s="1" t="s">
         <v>2179</v>
       </c>
     </row>
@@ -37933,7 +37934,7 @@
       <c r="L732" t="b">
         <v>0</v>
       </c>
-      <c r="M732" t="s">
+      <c r="M732" s="1" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -38015,7 +38016,7 @@
       <c r="L734" t="b">
         <v>0</v>
       </c>
-      <c r="M734" t="s">
+      <c r="M734" s="1" t="s">
         <v>2187</v>
       </c>
     </row>
@@ -38056,7 +38057,7 @@
       <c r="L735" t="b">
         <v>0</v>
       </c>
-      <c r="M735" t="s">
+      <c r="M735" s="1" t="s">
         <v>2190</v>
       </c>
     </row>
@@ -38097,7 +38098,7 @@
       <c r="L736" t="b">
         <v>0</v>
       </c>
-      <c r="M736" t="s">
+      <c r="M736" s="1" t="s">
         <v>2193</v>
       </c>
     </row>
@@ -38138,7 +38139,7 @@
       <c r="L737" t="b">
         <v>0</v>
       </c>
-      <c r="M737" t="s">
+      <c r="M737" s="1" t="s">
         <v>2197</v>
       </c>
     </row>
@@ -38179,7 +38180,7 @@
       <c r="L738" t="b">
         <v>0</v>
       </c>
-      <c r="M738" t="s">
+      <c r="M738" s="1" t="s">
         <v>2199</v>
       </c>
     </row>
@@ -38220,7 +38221,7 @@
       <c r="L739" t="b">
         <v>1</v>
       </c>
-      <c r="M739" t="s">
+      <c r="M739" s="1" t="s">
         <v>2201</v>
       </c>
     </row>
@@ -38261,7 +38262,7 @@
       <c r="L740" t="b">
         <v>0</v>
       </c>
-      <c r="M740" t="s">
+      <c r="M740" s="1" t="s">
         <v>2204</v>
       </c>
     </row>
@@ -38343,7 +38344,7 @@
       <c r="L742" t="b">
         <v>1</v>
       </c>
-      <c r="M742" t="s">
+      <c r="M742" s="1" t="s">
         <v>2209</v>
       </c>
     </row>
@@ -38384,7 +38385,7 @@
       <c r="L743" t="b">
         <v>1</v>
       </c>
-      <c r="M743" t="s">
+      <c r="M743" s="1" t="s">
         <v>2211</v>
       </c>
     </row>
@@ -38425,7 +38426,7 @@
       <c r="L744" t="b">
         <v>0</v>
       </c>
-      <c r="M744" t="s">
+      <c r="M744" s="1" t="s">
         <v>2213</v>
       </c>
     </row>
@@ -38466,7 +38467,7 @@
       <c r="L745" t="b">
         <v>0</v>
       </c>
-      <c r="M745" t="s">
+      <c r="M745" s="1" t="s">
         <v>2216</v>
       </c>
     </row>
@@ -38507,7 +38508,7 @@
       <c r="L746" t="b">
         <v>0</v>
       </c>
-      <c r="M746" t="s">
+      <c r="M746" s="1" t="s">
         <v>2218</v>
       </c>
     </row>
@@ -38548,7 +38549,7 @@
       <c r="L747" t="b">
         <v>1</v>
       </c>
-      <c r="M747" t="s">
+      <c r="M747" s="1" t="s">
         <v>2221</v>
       </c>
     </row>
@@ -38589,7 +38590,7 @@
       <c r="L748" t="b">
         <v>0</v>
       </c>
-      <c r="M748" t="s">
+      <c r="M748" s="1" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -38630,7 +38631,7 @@
       <c r="L749" t="b">
         <v>1</v>
       </c>
-      <c r="M749" t="s">
+      <c r="M749" s="1" t="s">
         <v>2226</v>
       </c>
     </row>
@@ -38671,7 +38672,7 @@
       <c r="L750" t="b">
         <v>0</v>
       </c>
-      <c r="M750" t="s">
+      <c r="M750" s="1" t="s">
         <v>2229</v>
       </c>
     </row>
@@ -38712,7 +38713,7 @@
       <c r="L751" t="b">
         <v>0</v>
       </c>
-      <c r="M751" t="s">
+      <c r="M751" s="1" t="s">
         <v>2001</v>
       </c>
     </row>
@@ -38753,7 +38754,7 @@
       <c r="L752" t="b">
         <v>0</v>
       </c>
-      <c r="M752" t="s">
+      <c r="M752" s="1" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -38794,7 +38795,7 @@
       <c r="L753" t="b">
         <v>1</v>
       </c>
-      <c r="M753" t="s">
+      <c r="M753" s="1" t="s">
         <v>2235</v>
       </c>
     </row>
@@ -38835,7 +38836,7 @@
       <c r="L754" t="b">
         <v>0</v>
       </c>
-      <c r="M754" t="s">
+      <c r="M754" s="1" t="s">
         <v>2238</v>
       </c>
     </row>
@@ -38876,7 +38877,7 @@
       <c r="L755" t="b">
         <v>0</v>
       </c>
-      <c r="M755" t="s">
+      <c r="M755" s="1" t="s">
         <v>2241</v>
       </c>
     </row>
@@ -38917,7 +38918,7 @@
       <c r="L756" t="b">
         <v>0</v>
       </c>
-      <c r="M756" t="s">
+      <c r="M756" s="1" t="s">
         <v>2244</v>
       </c>
     </row>
@@ -38958,7 +38959,7 @@
       <c r="L757" t="b">
         <v>0</v>
       </c>
-      <c r="M757" t="s">
+      <c r="M757" s="1" t="s">
         <v>2247</v>
       </c>
     </row>
@@ -38999,7 +39000,7 @@
       <c r="L758" t="b">
         <v>1</v>
       </c>
-      <c r="M758" t="s">
+      <c r="M758" s="1" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -39040,7 +39041,7 @@
       <c r="L759" t="b">
         <v>0</v>
       </c>
-      <c r="M759" t="s">
+      <c r="M759" s="1" t="s">
         <v>2253</v>
       </c>
     </row>
@@ -39081,7 +39082,7 @@
       <c r="L760" t="b">
         <v>1</v>
       </c>
-      <c r="M760" t="s">
+      <c r="M760" s="1" t="s">
         <v>2256</v>
       </c>
     </row>
@@ -39122,7 +39123,7 @@
       <c r="L761" t="b">
         <v>1</v>
       </c>
-      <c r="M761" t="s">
+      <c r="M761" s="1" t="s">
         <v>2259</v>
       </c>
     </row>
@@ -39163,7 +39164,7 @@
       <c r="L762" t="b">
         <v>0</v>
       </c>
-      <c r="M762" t="s">
+      <c r="M762" s="1" t="s">
         <v>2262</v>
       </c>
     </row>
@@ -39245,7 +39246,7 @@
       <c r="L764" t="b">
         <v>0</v>
       </c>
-      <c r="M764" t="s">
+      <c r="M764" s="1" t="s">
         <v>2267</v>
       </c>
     </row>
@@ -39286,7 +39287,7 @@
       <c r="L765" t="b">
         <v>0</v>
       </c>
-      <c r="M765" t="s">
+      <c r="M765" s="1" t="s">
         <v>2269</v>
       </c>
     </row>
@@ -39327,7 +39328,7 @@
       <c r="L766" t="b">
         <v>0</v>
       </c>
-      <c r="M766" t="s">
+      <c r="M766" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
@@ -39368,7 +39369,7 @@
       <c r="L767" t="b">
         <v>0</v>
       </c>
-      <c r="M767" t="s">
+      <c r="M767" s="1" t="s">
         <v>2273</v>
       </c>
     </row>
@@ -39409,7 +39410,7 @@
       <c r="L768" t="b">
         <v>1</v>
       </c>
-      <c r="M768" t="s">
+      <c r="M768" s="1" t="s">
         <v>2276</v>
       </c>
     </row>
@@ -39450,7 +39451,7 @@
       <c r="L769" t="b">
         <v>0</v>
       </c>
-      <c r="M769" t="s">
+      <c r="M769" s="1" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -39491,7 +39492,7 @@
       <c r="L770" t="b">
         <v>0</v>
       </c>
-      <c r="M770" t="s">
+      <c r="M770" s="1" t="s">
         <v>2282</v>
       </c>
     </row>
@@ -39532,7 +39533,7 @@
       <c r="L771" t="b">
         <v>0</v>
       </c>
-      <c r="M771" t="s">
+      <c r="M771" s="1" t="s">
         <v>2284</v>
       </c>
     </row>
@@ -39573,7 +39574,7 @@
       <c r="L772" t="b">
         <v>0</v>
       </c>
-      <c r="M772" t="s">
+      <c r="M772" s="1" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -39614,7 +39615,7 @@
       <c r="L773" t="b">
         <v>0</v>
       </c>
-      <c r="M773" t="s">
+      <c r="M773" s="1" t="s">
         <v>2290</v>
       </c>
     </row>
@@ -39655,7 +39656,7 @@
       <c r="L774" t="b">
         <v>1</v>
       </c>
-      <c r="M774" t="s">
+      <c r="M774" s="1" t="s">
         <v>2292</v>
       </c>
     </row>
@@ -39696,7 +39697,7 @@
       <c r="L775" t="b">
         <v>1</v>
       </c>
-      <c r="M775" t="s">
+      <c r="M775" s="1" t="s">
         <v>2295</v>
       </c>
     </row>
